--- a/biology/Botanique/Banksia_sessilis/Banksia_sessilis.xlsx
+++ b/biology/Botanique/Banksia_sessilis/Banksia_sessilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia sessilis est une espèce d'arbustes buissonnants du genre Banksia, de la famille des Protéacées. 
-Elle est connue sous le nom de Dryandra sessilis, jusqu'en 2007, date à laquelle le genre Dryandra a été intégré dans celui de Banksia. Le peuple Noongar connaît la plante sous le nom de Budjan ou Butyak[2]. 
+Elle est connue sous le nom de Dryandra sessilis, jusqu'en 2007, date à laquelle le genre Dryandra a été intégré dans celui de Banksia. Le peuple Noongar connaît la plante sous le nom de Budjan ou Butyak. 
 Endémique dans tout le sud-ouest de l'Australie-Occidentale, elle est présente sur les sols sableux sur latérite ou calcaire, souvent comme plante de sous-bois dans les forêts ouvertes, les bois ou la brousse. Se présentant sous la forme d'un arbuste ou d'un petit arbre, pouvant atteindre 6 mètres de haut, il a des feuilles vert foncé piquantes et des capitules en forme de dôme jaune crème. Fleurissant de l'hiver à la fin du printemps, il constitue une source essentielle de nourriture - à la fois le nectar et les insectes qu'il attire - pour les mangeurs de miel pendant les mois les plus frais, et la biodiversité est réduite dans les régions où il y a peu ou pas de perroquet.
 Plusieurs espèces de mangeurs de miel, certaines espèces d'abeilles indigènes et l'abeille domestique européenne recherchent et consomment le nectar, tandis que le cacatoès noir à long bec et la perruche à collier jaune mangent la graine. Le cycle de vie de Banksia sessilis est adapté aux feux de brousse réguliers. Tué par le feu et se régénérant par la suite grâce à ses graines, chaque arbuste produit généralement de nombreux capitules et une quantité massive de graines. Il peut recoloniser les zones perturbées et peut pousser dans les fourrés. 
 </t>
